--- a/omc_basic_gst_config/data/account.account.xlsx
+++ b/omc_basic_gst_config/data/account.account.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\personal\OneDrive\demo_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\git\odoo\basic_addons\omc_basic_gst_config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">account.account!$A$1:$L$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">account.account!$A$1:$L$194</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$196</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="598">
   <si>
     <t>id</t>
   </si>
@@ -2624,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,28 +3060,28 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>110203</v>
+        <v>1103</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -3090,56 +3090,56 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>110301</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
         <v>418</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>1103</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15">
-        <v>110301</v>
+        <v>110302</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16">
-        <v>110302</v>
+        <v>110303</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17">
-        <v>110303</v>
+        <v>110304</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -3235,16 +3235,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18">
-        <v>110304</v>
+        <v>110305</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19">
-        <v>110305</v>
+        <v>110306</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -3305,16 +3305,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20">
-        <v>110306</v>
+        <v>110307</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>110307</v>
+        <v>110308</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -3375,16 +3375,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22">
-        <v>110308</v>
+        <v>110309</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -3410,16 +3410,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23">
-        <v>110309</v>
+        <v>110310</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -3445,16 +3445,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>110310</v>
+        <v>110311</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -3480,16 +3480,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25">
-        <v>110311</v>
+        <v>110312</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -3515,22 +3515,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>110312</v>
+        <v>1104</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3539,62 +3539,62 @@
         <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>110401</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
         <v>430</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>1104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>110401</v>
+        <v>110402</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -3620,22 +3620,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>110402</v>
+        <v>1105</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3650,56 +3650,56 @@
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>110501</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
         <v>433</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30">
-        <v>1105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31">
-        <v>110501</v>
+        <v>110502</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -3725,16 +3725,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32">
-        <v>110502</v>
+        <v>110503</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -3760,16 +3760,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33">
-        <v>110503</v>
+        <v>110504</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -3795,16 +3795,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34">
-        <v>110504</v>
+        <v>110505</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -3830,16 +3830,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35">
-        <v>110505</v>
+        <v>110506</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
       </c>
       <c r="D36">
-        <v>110506</v>
+        <v>110507</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -3900,22 +3900,22 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>110507</v>
+        <v>1109</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3930,56 +3930,56 @@
         <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>110901</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
         <v>441</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38">
-        <v>1109</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
       </c>
       <c r="D39">
-        <v>110901</v>
+        <v>110902</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -3988,7 +3988,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -4005,25 +4005,25 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>110902</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -4035,21 +4035,21 @@
         <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>120</v>
+        <v>1201</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -4070,56 +4070,56 @@
         <v>16</v>
       </c>
       <c r="L41" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>446</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>120101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
         <v>445</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <v>1201</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
       </c>
       <c r="D43">
-        <v>120101</v>
+        <v>120102</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -4145,22 +4145,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
       </c>
       <c r="D44">
-        <v>120102</v>
+        <v>1202</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4175,27 +4175,27 @@
         <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
       </c>
       <c r="D45">
-        <v>1202</v>
+        <v>120201</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4210,21 +4210,21 @@
         <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46">
-        <v>120201</v>
+        <v>120202</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -4250,22 +4250,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>120202</v>
+        <v>1203</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4280,56 +4280,56 @@
         <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>120301</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" t="s">
         <v>451</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48">
-        <v>1203</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49">
-        <v>120301</v>
+        <v>120302</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -4355,22 +4355,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>120302</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4385,21 +4385,21 @@
         <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -4420,21 +4420,21 @@
         <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52">
-        <v>210</v>
+        <v>2101</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -4455,56 +4455,56 @@
         <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>457</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53">
+        <v>210101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
         <v>456</v>
-      </c>
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53">
-        <v>2101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
         <v>78</v>
       </c>
       <c r="D54">
-        <v>210101</v>
+        <v>210102</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -4530,22 +4530,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>210102</v>
+        <v>2102</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4560,56 +4560,56 @@
         <v>16</v>
       </c>
       <c r="L55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56">
+        <v>210201</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="s">
         <v>459</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56">
-        <v>2102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
       </c>
       <c r="D57">
-        <v>210201</v>
+        <v>210202</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -4635,16 +4635,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
       </c>
       <c r="D58">
-        <v>210202</v>
+        <v>210203</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -4670,16 +4670,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>83</v>
       </c>
       <c r="D59">
-        <v>210203</v>
+        <v>210204</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -4705,16 +4705,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
         <v>83</v>
       </c>
       <c r="D60">
-        <v>210204</v>
+        <v>210205</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4740,16 +4740,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
         <v>83</v>
       </c>
       <c r="D61">
-        <v>210205</v>
+        <v>210206</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4775,16 +4775,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
         <v>83</v>
       </c>
       <c r="D62">
-        <v>210206</v>
+        <v>210207</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -4810,16 +4810,16 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>83</v>
       </c>
       <c r="D63">
-        <v>210207</v>
+        <v>210208</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -4845,16 +4845,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>83</v>
       </c>
       <c r="D64">
-        <v>210208</v>
+        <v>210209</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -4880,16 +4880,16 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
         <v>83</v>
       </c>
       <c r="D65">
-        <v>210209</v>
+        <v>210210</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4915,22 +4915,22 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>210210</v>
+        <v>2103</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -4945,56 +4945,56 @@
         <v>16</v>
       </c>
       <c r="L66" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67">
+        <v>210301</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
         <v>470</v>
-      </c>
-      <c r="B67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67">
-        <v>2103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>210301</v>
+        <v>210302</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -5020,16 +5020,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
       </c>
       <c r="D69">
-        <v>210302</v>
+        <v>210303</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -5055,16 +5055,16 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70">
-        <v>210303</v>
+        <v>210304</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -5090,16 +5090,16 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>210304</v>
+        <v>210305</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -5125,22 +5125,22 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>210305</v>
+        <v>2104</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5155,27 +5155,27 @@
         <v>16</v>
       </c>
       <c r="L72" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s">
         <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D73">
-        <v>2104</v>
+        <v>210401</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5190,27 +5190,27 @@
         <v>16</v>
       </c>
       <c r="L73" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D74">
-        <v>210401</v>
+        <v>2105</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5225,56 +5225,56 @@
         <v>16</v>
       </c>
       <c r="L74" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75">
+        <v>210501</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
         <v>478</v>
-      </c>
-      <c r="B75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>2105</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
       </c>
       <c r="D76">
-        <v>210501</v>
+        <v>210502</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -5300,16 +5300,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
         <v>83</v>
       </c>
       <c r="D77">
-        <v>210502</v>
+        <v>210503</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -5335,22 +5335,22 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>210503</v>
+        <v>220</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5365,12 +5365,12 @@
         <v>16</v>
       </c>
       <c r="L78" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s">
         <v>104</v>
@@ -5379,7 +5379,7 @@
         <v>13</v>
       </c>
       <c r="D79">
-        <v>220</v>
+        <v>2201</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -5400,62 +5400,62 @@
         <v>16</v>
       </c>
       <c r="L79" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <v>220101</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" t="s">
         <v>483</v>
-      </c>
-      <c r="B80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80">
-        <v>2201</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>220101</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -5470,21 +5470,21 @@
         <v>16</v>
       </c>
       <c r="L81" t="s">
-        <v>483</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -5505,12 +5505,12 @@
         <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>408</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s">
         <v>107</v>
@@ -5519,7 +5519,7 @@
         <v>13</v>
       </c>
       <c r="D83">
-        <v>310</v>
+        <v>3101</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -5540,27 +5540,27 @@
         <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s">
         <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D84">
-        <v>3101</v>
+        <v>310101</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -5575,27 +5575,27 @@
         <v>16</v>
       </c>
       <c r="L84" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>310101</v>
+        <v>320</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -5610,12 +5610,12 @@
         <v>16</v>
       </c>
       <c r="L85" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
@@ -5624,7 +5624,7 @@
         <v>13</v>
       </c>
       <c r="D86">
-        <v>320</v>
+        <v>3201</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -5645,27 +5645,27 @@
         <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s">
         <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D87">
-        <v>3201</v>
+        <v>320101</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -5680,27 +5680,27 @@
         <v>16</v>
       </c>
       <c r="L87" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>320101</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -5715,21 +5715,21 @@
         <v>16</v>
       </c>
       <c r="L88" t="s">
-        <v>490</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -5750,21 +5750,21 @@
         <v>16</v>
       </c>
       <c r="L89" t="s">
-        <v>407</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -5785,12 +5785,12 @@
         <v>16</v>
       </c>
       <c r="L90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B91" t="s">
         <v>112</v>
@@ -5799,7 +5799,7 @@
         <v>13</v>
       </c>
       <c r="D91">
-        <v>410</v>
+        <v>4101</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -5820,62 +5820,62 @@
         <v>16</v>
       </c>
       <c r="L91" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92">
+        <v>410101</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" t="s">
         <v>495</v>
-      </c>
-      <c r="B92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92">
-        <v>4101</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>410101</v>
+        <v>420</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -5890,12 +5890,12 @@
         <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B94" t="s">
         <v>115</v>
@@ -5904,7 +5904,7 @@
         <v>13</v>
       </c>
       <c r="D94">
-        <v>420</v>
+        <v>4201</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -5925,27 +5925,27 @@
         <v>16</v>
       </c>
       <c r="L94" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B95" t="s">
         <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D95">
-        <v>4201</v>
+        <v>420101</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -5960,27 +5960,27 @@
         <v>16</v>
       </c>
       <c r="L95" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D96">
-        <v>420101</v>
+        <v>4202</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -5995,56 +5995,56 @@
         <v>16</v>
       </c>
       <c r="L96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97">
+        <v>420201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" t="s">
         <v>500</v>
-      </c>
-      <c r="B97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97">
-        <v>4202</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
         <v>114</v>
       </c>
       <c r="D98">
-        <v>420201</v>
+        <v>420202</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -6070,16 +6070,16 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>420202</v>
+        <v>420203</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -6105,22 +6105,22 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>420203</v>
+        <v>50</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6135,12 +6135,12 @@
         <v>16</v>
       </c>
       <c r="L100" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B101" t="s">
         <v>120</v>
@@ -6149,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="D101">
-        <v>50</v>
+        <v>510</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -6170,21 +6170,21 @@
         <v>16</v>
       </c>
       <c r="L101" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102">
-        <v>510</v>
+        <v>5101</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -6205,56 +6205,56 @@
         <v>16</v>
       </c>
       <c r="L102" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>507</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103">
+        <v>510101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" t="s">
         <v>506</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103">
-        <v>5101</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
         <v>123</v>
       </c>
       <c r="D104">
-        <v>510101</v>
+        <v>510102</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -6280,22 +6280,22 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D105">
-        <v>510102</v>
+        <v>5102</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -6310,56 +6310,56 @@
         <v>16</v>
       </c>
       <c r="L105" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106">
+        <v>510201</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" t="s">
         <v>509</v>
-      </c>
-      <c r="B106" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106">
-        <v>5102</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>123</v>
       </c>
       <c r="D107">
-        <v>510201</v>
+        <v>510202</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -6385,16 +6385,16 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
         <v>123</v>
       </c>
       <c r="D108">
-        <v>510202</v>
+        <v>510203</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -6420,16 +6420,16 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
         <v>123</v>
       </c>
       <c r="D109">
-        <v>510203</v>
+        <v>510204</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6455,16 +6455,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
       </c>
       <c r="D110">
-        <v>510204</v>
+        <v>510205</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -6490,16 +6490,16 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
         <v>123</v>
       </c>
       <c r="D111">
-        <v>510205</v>
+        <v>510206</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -6525,16 +6525,16 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
         <v>123</v>
       </c>
       <c r="D112">
-        <v>510206</v>
+        <v>510207</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -6560,22 +6560,22 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>510207</v>
+        <v>5103</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -6590,56 +6590,56 @@
         <v>16</v>
       </c>
       <c r="L113" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>518</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114">
+        <v>510301</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" t="s">
         <v>517</v>
-      </c>
-      <c r="B114" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114">
-        <v>5103</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" t="s">
-        <v>16</v>
-      </c>
-      <c r="L114" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
         <v>123</v>
       </c>
       <c r="D115">
-        <v>510301</v>
+        <v>510302</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -6665,16 +6665,16 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
       </c>
       <c r="D116">
-        <v>510302</v>
+        <v>510303</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6700,16 +6700,16 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
         <v>123</v>
       </c>
       <c r="D117">
-        <v>510303</v>
+        <v>510304</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -6735,16 +6735,16 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
         <v>123</v>
       </c>
       <c r="D118">
-        <v>510304</v>
+        <v>510305</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -6770,16 +6770,16 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
         <v>123</v>
       </c>
       <c r="D119">
-        <v>510305</v>
+        <v>510306</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -6805,16 +6805,16 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
         <v>123</v>
       </c>
       <c r="D120">
-        <v>510306</v>
+        <v>510307</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -6840,16 +6840,16 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
       </c>
       <c r="D121">
-        <v>510307</v>
+        <v>510308</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -6875,22 +6875,22 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D122">
-        <v>510308</v>
+        <v>5104</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -6905,56 +6905,56 @@
         <v>16</v>
       </c>
       <c r="L122" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>527</v>
+      </c>
+      <c r="B123" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123">
+        <v>510401</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" t="s">
         <v>526</v>
-      </c>
-      <c r="B123" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123">
-        <v>5104</v>
-      </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="b">
-        <v>0</v>
-      </c>
-      <c r="K123" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
         <v>123</v>
       </c>
       <c r="D124">
-        <v>510401</v>
+        <v>510402</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -6980,16 +6980,16 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
         <v>123</v>
       </c>
       <c r="D125">
-        <v>510402</v>
+        <v>510403</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -7015,16 +7015,16 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
         <v>123</v>
       </c>
       <c r="D126">
-        <v>510403</v>
+        <v>510404</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -7050,16 +7050,16 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
         <v>123</v>
       </c>
       <c r="D127">
-        <v>510404</v>
+        <v>510405</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -7085,22 +7085,22 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D128">
-        <v>510405</v>
+        <v>60</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -7115,21 +7115,21 @@
         <v>16</v>
       </c>
       <c r="L128" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="D129">
-        <v>60</v>
+        <v>610</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
@@ -7150,21 +7150,21 @@
         <v>16</v>
       </c>
       <c r="L129" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130">
-        <v>610</v>
+        <v>6101</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -7185,56 +7185,56 @@
         <v>16</v>
       </c>
       <c r="L130" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>535</v>
+      </c>
+      <c r="B131" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131">
+        <v>610101</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" t="s">
         <v>534</v>
-      </c>
-      <c r="B131" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131">
-        <v>6101</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C132" t="s">
         <v>123</v>
       </c>
       <c r="D132">
-        <v>610101</v>
+        <v>610102</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -7260,16 +7260,16 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C133" t="s">
         <v>123</v>
       </c>
       <c r="D133">
-        <v>610102</v>
+        <v>610103</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -7295,16 +7295,16 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C134" t="s">
         <v>123</v>
       </c>
       <c r="D134">
-        <v>610103</v>
+        <v>610104</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -7330,16 +7330,16 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C135" t="s">
         <v>123</v>
       </c>
       <c r="D135">
-        <v>610104</v>
+        <v>610106</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -7365,22 +7365,22 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D136">
-        <v>610106</v>
+        <v>6102</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -7395,62 +7395,62 @@
         <v>16</v>
       </c>
       <c r="L136" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>541</v>
+      </c>
+      <c r="B137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137">
+        <v>610201</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>37</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>16</v>
+      </c>
+      <c r="L137" t="s">
         <v>540</v>
-      </c>
-      <c r="B137" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137">
-        <v>6102</v>
-      </c>
-      <c r="E137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D138">
-        <v>610201</v>
+        <v>6103</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
@@ -7465,56 +7465,56 @@
         <v>16</v>
       </c>
       <c r="L138" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>543</v>
+      </c>
+      <c r="B139" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" t="s">
+        <v>123</v>
+      </c>
+      <c r="D139">
+        <v>610301</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>37</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139" t="s">
         <v>542</v>
-      </c>
-      <c r="B139" t="s">
-        <v>158</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139">
-        <v>6103</v>
-      </c>
-      <c r="E139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C140" t="s">
         <v>123</v>
       </c>
       <c r="D140">
-        <v>610301</v>
+        <v>610302</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -7540,16 +7540,16 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s">
         <v>123</v>
       </c>
       <c r="D141">
-        <v>610302</v>
+        <v>610303</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -7575,22 +7575,22 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D142">
-        <v>610303</v>
+        <v>6104</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -7605,56 +7605,56 @@
         <v>16</v>
       </c>
       <c r="L142" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>547</v>
+      </c>
+      <c r="B143" t="s">
+        <v>163</v>
+      </c>
+      <c r="C143" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143">
+        <v>610401</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143" t="s">
         <v>546</v>
-      </c>
-      <c r="B143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143">
-        <v>6104</v>
-      </c>
-      <c r="E143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="b">
-        <v>0</v>
-      </c>
-      <c r="K143" t="s">
-        <v>16</v>
-      </c>
-      <c r="L143" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C144" t="s">
         <v>123</v>
       </c>
       <c r="D144">
-        <v>610401</v>
+        <v>610402</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7680,16 +7680,16 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C145" t="s">
         <v>123</v>
       </c>
       <c r="D145">
-        <v>610402</v>
+        <v>610403</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -7715,22 +7715,22 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D146">
-        <v>610403</v>
+        <v>6105</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
@@ -7745,56 +7745,56 @@
         <v>16</v>
       </c>
       <c r="L146" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>551</v>
+      </c>
+      <c r="B147" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" t="s">
+        <v>123</v>
+      </c>
+      <c r="D147">
+        <v>610501</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" t="s">
+        <v>16</v>
+      </c>
+      <c r="L147" t="s">
         <v>550</v>
-      </c>
-      <c r="B147" t="s">
-        <v>166</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147">
-        <v>6105</v>
-      </c>
-      <c r="E147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" t="b">
-        <v>0</v>
-      </c>
-      <c r="K147" t="s">
-        <v>16</v>
-      </c>
-      <c r="L147" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C148" t="s">
         <v>123</v>
       </c>
       <c r="D148">
-        <v>610501</v>
+        <v>610502</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -7820,16 +7820,16 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C149" t="s">
         <v>123</v>
       </c>
       <c r="D149">
-        <v>610502</v>
+        <v>610503</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -7855,16 +7855,16 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C150" t="s">
         <v>123</v>
       </c>
       <c r="D150">
-        <v>610503</v>
+        <v>610504</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -7890,22 +7890,22 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D151">
-        <v>610504</v>
+        <v>6106</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -7920,56 +7920,56 @@
         <v>16</v>
       </c>
       <c r="L151" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>556</v>
+      </c>
+      <c r="B152" t="s">
+        <v>172</v>
+      </c>
+      <c r="C152" t="s">
+        <v>123</v>
+      </c>
+      <c r="D152">
+        <v>610601</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>16</v>
+      </c>
+      <c r="L152" t="s">
         <v>555</v>
-      </c>
-      <c r="B152" t="s">
-        <v>171</v>
-      </c>
-      <c r="C152" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152">
-        <v>6106</v>
-      </c>
-      <c r="E152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="b">
-        <v>0</v>
-      </c>
-      <c r="K152" t="s">
-        <v>16</v>
-      </c>
-      <c r="L152" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C153" t="s">
         <v>123</v>
       </c>
       <c r="D153">
-        <v>610601</v>
+        <v>610602</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -7995,16 +7995,16 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
         <v>123</v>
       </c>
       <c r="D154">
-        <v>610602</v>
+        <v>610603</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -8030,16 +8030,16 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
         <v>123</v>
       </c>
       <c r="D155">
-        <v>610603</v>
+        <v>610604</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -8065,22 +8065,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D156">
-        <v>610604</v>
+        <v>6107</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -8095,56 +8095,56 @@
         <v>16</v>
       </c>
       <c r="L156" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>561</v>
+      </c>
+      <c r="B157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D157">
+        <v>610701</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+      <c r="K157" t="s">
+        <v>16</v>
+      </c>
+      <c r="L157" t="s">
         <v>560</v>
-      </c>
-      <c r="B157" t="s">
-        <v>176</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157">
-        <v>6107</v>
-      </c>
-      <c r="E157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="b">
-        <v>0</v>
-      </c>
-      <c r="K157" t="s">
-        <v>16</v>
-      </c>
-      <c r="L157" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C158" t="s">
         <v>123</v>
       </c>
       <c r="D158">
-        <v>610701</v>
+        <v>610702</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -8170,16 +8170,16 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
         <v>123</v>
       </c>
       <c r="D159">
-        <v>610702</v>
+        <v>610703</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -8205,16 +8205,16 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
         <v>123</v>
       </c>
       <c r="D160">
-        <v>610703</v>
+        <v>610704</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -8240,22 +8240,22 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D161">
-        <v>610704</v>
+        <v>6109</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -8270,56 +8270,56 @@
         <v>16</v>
       </c>
       <c r="L161" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" t="s">
+        <v>123</v>
+      </c>
+      <c r="D162">
+        <v>610901</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>37</v>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>16</v>
+      </c>
+      <c r="L162" t="s">
         <v>565</v>
-      </c>
-      <c r="B162" t="s">
-        <v>181</v>
-      </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162">
-        <v>6109</v>
-      </c>
-      <c r="E162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" t="s">
-        <v>16</v>
-      </c>
-      <c r="L162" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C163" t="s">
         <v>123</v>
       </c>
       <c r="D163">
-        <v>610901</v>
+        <v>610902</v>
       </c>
       <c r="E163" t="s">
         <v>14</v>
@@ -8345,16 +8345,16 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C164" t="s">
         <v>123</v>
       </c>
       <c r="D164">
-        <v>610902</v>
+        <v>610903</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
@@ -8380,16 +8380,16 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B165" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C165" t="s">
         <v>123</v>
       </c>
       <c r="D165">
-        <v>610903</v>
+        <v>610904</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -8415,16 +8415,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
         <v>123</v>
       </c>
       <c r="D166">
-        <v>610904</v>
+        <v>610905</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
@@ -8450,16 +8450,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C167" t="s">
         <v>123</v>
       </c>
       <c r="D167">
-        <v>610905</v>
+        <v>610906</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
@@ -8485,16 +8485,16 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
         <v>123</v>
       </c>
       <c r="D168">
-        <v>610906</v>
+        <v>610907</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
@@ -8520,16 +8520,16 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C169" t="s">
         <v>123</v>
       </c>
       <c r="D169">
-        <v>610907</v>
+        <v>610908</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
@@ -8555,16 +8555,16 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C170" t="s">
         <v>123</v>
       </c>
       <c r="D170">
-        <v>610908</v>
+        <v>610909</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
@@ -8590,22 +8590,22 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C171" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D171">
-        <v>610909</v>
+        <v>620</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -8620,12 +8620,12 @@
         <v>16</v>
       </c>
       <c r="L171" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B172" t="s">
         <v>191</v>
@@ -8634,7 +8634,7 @@
         <v>13</v>
       </c>
       <c r="D172">
-        <v>620</v>
+        <v>6201</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -8655,56 +8655,56 @@
         <v>16</v>
       </c>
       <c r="L172" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>577</v>
+      </c>
+      <c r="B173" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173">
+        <v>620101</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>37</v>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>16</v>
+      </c>
+      <c r="L173" t="s">
         <v>576</v>
-      </c>
-      <c r="B173" t="s">
-        <v>191</v>
-      </c>
-      <c r="C173" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173">
-        <v>6201</v>
-      </c>
-      <c r="E173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>15</v>
-      </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="b">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>16</v>
-      </c>
-      <c r="L173" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C174" t="s">
         <v>123</v>
       </c>
       <c r="D174">
-        <v>620101</v>
+        <v>620102</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -8730,16 +8730,16 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C175" t="s">
         <v>123</v>
       </c>
       <c r="D175">
-        <v>620102</v>
+        <v>620103</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
@@ -8765,16 +8765,16 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C176" t="s">
         <v>123</v>
       </c>
       <c r="D176">
-        <v>620103</v>
+        <v>620104</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -8800,16 +8800,16 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C177" t="s">
         <v>123</v>
       </c>
       <c r="D177">
-        <v>620104</v>
+        <v>620105</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -8835,16 +8835,16 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C178" t="s">
         <v>123</v>
       </c>
       <c r="D178">
-        <v>620105</v>
+        <v>620106</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
@@ -8870,16 +8870,16 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C179" t="s">
         <v>123</v>
       </c>
       <c r="D179">
-        <v>620106</v>
+        <v>620107</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -8905,16 +8905,16 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C180" t="s">
         <v>123</v>
       </c>
       <c r="D180">
-        <v>620107</v>
+        <v>620108</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
@@ -8940,16 +8940,16 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C181" t="s">
         <v>123</v>
       </c>
       <c r="D181">
-        <v>620108</v>
+        <v>620109</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -8975,16 +8975,16 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C182" t="s">
         <v>123</v>
       </c>
       <c r="D182">
-        <v>620109</v>
+        <v>620110</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -9010,16 +9010,16 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C183" t="s">
         <v>123</v>
       </c>
       <c r="D183">
-        <v>620110</v>
+        <v>620111</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
@@ -9045,16 +9045,16 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C184" t="s">
         <v>123</v>
       </c>
       <c r="D184">
-        <v>620111</v>
+        <v>620112</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -9080,22 +9080,22 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C185" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D185">
-        <v>620112</v>
+        <v>630</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
@@ -9110,12 +9110,12 @@
         <v>16</v>
       </c>
       <c r="L185" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B186" t="s">
         <v>204</v>
@@ -9124,7 +9124,7 @@
         <v>13</v>
       </c>
       <c r="D186">
-        <v>630</v>
+        <v>6301</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -9145,56 +9145,56 @@
         <v>16</v>
       </c>
       <c r="L186" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>591</v>
+      </c>
+      <c r="B187" t="s">
+        <v>205</v>
+      </c>
+      <c r="C187" t="s">
+        <v>123</v>
+      </c>
+      <c r="D187">
+        <v>630101</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>37</v>
+      </c>
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>16</v>
+      </c>
+      <c r="L187" t="s">
         <v>590</v>
-      </c>
-      <c r="B187" t="s">
-        <v>204</v>
-      </c>
-      <c r="C187" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187">
-        <v>6301</v>
-      </c>
-      <c r="E187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" t="b">
-        <v>0</v>
-      </c>
-      <c r="I187" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" t="b">
-        <v>0</v>
-      </c>
-      <c r="K187" t="s">
-        <v>16</v>
-      </c>
-      <c r="L187" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B188" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C188" t="s">
         <v>123</v>
       </c>
       <c r="D188">
-        <v>630101</v>
+        <v>630102</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -9220,16 +9220,16 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C189" t="s">
         <v>123</v>
       </c>
       <c r="D189">
-        <v>630102</v>
+        <v>630103</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -9255,16 +9255,16 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
         <v>123</v>
       </c>
       <c r="D190">
-        <v>630103</v>
+        <v>630104</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -9290,22 +9290,22 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B191" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D191">
-        <v>630104</v>
+        <v>640</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -9320,12 +9320,12 @@
         <v>16</v>
       </c>
       <c r="L191" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B192" t="s">
         <v>209</v>
@@ -9334,7 +9334,7 @@
         <v>13</v>
       </c>
       <c r="D192">
-        <v>640</v>
+        <v>6401</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
@@ -9355,62 +9355,62 @@
         <v>16</v>
       </c>
       <c r="L192" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>597</v>
+      </c>
+      <c r="B193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C193" t="s">
+        <v>123</v>
+      </c>
+      <c r="D193">
+        <v>640101</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>37</v>
+      </c>
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
+        <v>16</v>
+      </c>
+      <c r="L193" t="s">
         <v>596</v>
-      </c>
-      <c r="B193" t="s">
-        <v>209</v>
-      </c>
-      <c r="C193" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193">
-        <v>6401</v>
-      </c>
-      <c r="E193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>15</v>
-      </c>
-      <c r="H193" t="b">
-        <v>0</v>
-      </c>
-      <c r="I193" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" t="b">
-        <v>0</v>
-      </c>
-      <c r="K193" t="s">
-        <v>16</v>
-      </c>
-      <c r="L193" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>597</v>
+        <v>212</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C194" t="s">
-        <v>123</v>
-      </c>
-      <c r="D194">
-        <v>640101</v>
+        <v>78</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -9424,76 +9424,9 @@
       <c r="K194" t="s">
         <v>16</v>
       </c>
-      <c r="L194" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>211</v>
-      </c>
-      <c r="B195" t="s">
-        <v>103</v>
-      </c>
-      <c r="C195" t="s">
-        <v>78</v>
-      </c>
-      <c r="D195">
-        <v>210199</v>
-      </c>
-      <c r="E195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>37</v>
-      </c>
-      <c r="H195" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="b">
-        <v>0</v>
-      </c>
-      <c r="K195" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>212</v>
-      </c>
-      <c r="B196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C196" t="s">
-        <v>78</v>
-      </c>
-      <c r="D196" t="s">
-        <v>214</v>
-      </c>
-      <c r="E196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>79</v>
-      </c>
-      <c r="H196" t="b">
-        <v>0</v>
-      </c>
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" t="b">
-        <v>0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L196"/>
+  <autoFilter ref="A1:L194"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
